--- a/GitHubDataSheet.xlsx
+++ b/GitHubDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindsey\Documents\MATLAB\My_GitHub\GitHub5_Upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsey/Documents/COVID-19/My_Pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCFCBA9-B232-3A40-B786-E2E4AB4D310A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22590" windowHeight="10095" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22600" windowHeight="10100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -180,12 +181,18 @@
   </si>
   <si>
     <t>ex-em</t>
+  </si>
+  <si>
+    <t>Z® threshold</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -548,27 +555,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="8" max="9" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
@@ -616,8 +623,11 @@
       <c r="AA1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,8 +709,11 @@
       <c r="AA2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>190930</v>
       </c>
@@ -782,8 +795,11 @@
       <c r="AA3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>190930</v>
       </c>
@@ -865,8 +881,11 @@
       <c r="AA4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -897,7 +916,7 @@
       <c r="AB9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -928,7 +947,7 @@
       <c r="AB10"/>
       <c r="AC10"/>
     </row>
-    <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -959,7 +978,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -990,7 +1009,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1021,7 +1040,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1052,7 +1071,7 @@
       <c r="AB18"/>
       <c r="AC18"/>
     </row>
-    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1083,7 +1102,7 @@
       <c r="AB23"/>
       <c r="AC23"/>
     </row>
-    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1114,7 +1133,7 @@
       <c r="AB24"/>
       <c r="AC24"/>
     </row>
-    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1145,7 +1164,7 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
     </row>
-    <row r="30" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1176,7 +1195,7 @@
       <c r="AB30"/>
       <c r="AC30"/>
     </row>
-    <row r="31" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1207,7 +1226,7 @@
       <c r="AB31"/>
       <c r="AC31"/>
     </row>
-    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1238,7 +1257,7 @@
       <c r="AB32"/>
       <c r="AC32"/>
     </row>
-    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1269,7 +1288,7 @@
       <c r="AB33"/>
       <c r="AC33"/>
     </row>
-    <row r="38" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1300,7 +1319,7 @@
       <c r="AB38"/>
       <c r="AC38"/>
     </row>
-    <row r="39" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1331,7 +1350,7 @@
       <c r="AB39"/>
       <c r="AC39"/>
     </row>
-    <row r="40" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1362,7 +1381,7 @@
       <c r="AB40"/>
       <c r="AC40"/>
     </row>
-    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1393,7 +1412,7 @@
       <c r="AB41"/>
       <c r="AC41"/>
     </row>
-    <row r="43" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1424,7 +1443,7 @@
       <c r="AB43"/>
       <c r="AC43"/>
     </row>
-    <row r="44" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1455,7 +1474,7 @@
       <c r="AB44"/>
       <c r="AC44"/>
     </row>
-    <row r="67" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -1486,7 +1505,7 @@
       <c r="AB67"/>
       <c r="AC67"/>
     </row>
-    <row r="68" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -1517,7 +1536,7 @@
       <c r="AB68"/>
       <c r="AC68"/>
     </row>
-    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -1548,7 +1567,7 @@
       <c r="AB73"/>
       <c r="AC73"/>
     </row>
-    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -1579,7 +1598,7 @@
       <c r="AB74"/>
       <c r="AC74"/>
     </row>
-    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -1610,7 +1629,7 @@
       <c r="AB79"/>
       <c r="AC79"/>
     </row>
-    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -1641,7 +1660,7 @@
       <c r="AB80"/>
       <c r="AC80"/>
     </row>
-    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -1672,7 +1691,7 @@
       <c r="AB81"/>
       <c r="AC81"/>
     </row>
-    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -1703,7 +1722,7 @@
       <c r="AB86"/>
       <c r="AC86"/>
     </row>
-    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -1734,7 +1753,7 @@
       <c r="AB87"/>
       <c r="AC87"/>
     </row>
-    <row r="92" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -1765,7 +1784,7 @@
       <c r="AB92"/>
       <c r="AC92"/>
     </row>
-    <row r="93" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -1796,7 +1815,7 @@
       <c r="AB93"/>
       <c r="AC93"/>
     </row>
-    <row r="94" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -1827,7 +1846,7 @@
       <c r="AB94"/>
       <c r="AC94"/>
     </row>
-    <row r="95" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -1858,7 +1877,7 @@
       <c r="AB95"/>
       <c r="AC95"/>
     </row>
-    <row r="97" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -1889,7 +1908,7 @@
       <c r="AB97"/>
       <c r="AC97"/>
     </row>
-    <row r="98" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -1920,7 +1939,7 @@
       <c r="AB98"/>
       <c r="AC98"/>
     </row>
-    <row r="115" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -1951,7 +1970,7 @@
       <c r="AB115"/>
       <c r="AC115"/>
     </row>
-    <row r="116" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -1982,7 +2001,7 @@
       <c r="AB116"/>
       <c r="AC116"/>
     </row>
-    <row r="121" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -2013,7 +2032,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -2044,7 +2063,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -2075,7 +2094,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="128" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -2106,7 +2125,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -2137,7 +2156,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="134" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -2168,7 +2187,7 @@
       <c r="AB134"/>
       <c r="AC134"/>
     </row>
-    <row r="185" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
